--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -72,7 +72,7 @@
     <t>Survey</t>
   </si>
   <si>
-    <t>SE/4 SW/4 S32 7N 1E, S5 6N 1E</t>
+    <t>S5 6N 1E, S32 7N 1E, SE/4 SW/4 S32 7N 1E</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:XFD7"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -66,13 +66,13 @@
     <t>Record Map</t>
   </si>
   <si>
-    <t>NO MAP</t>
-  </si>
-  <si>
     <t>Survey</t>
   </si>
   <si>
     <t>S5 6N 1E, S32 7N 1E, SE/4 SW/4 S32 7N 1E</t>
+  </si>
+  <si>
+    <t>NO MAP ON FILE</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -517,12 +517,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>MAPTYPE</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>NO MAP ON FILE</t>
+  </si>
+  <si>
+    <t>TEST GRID (TR1)</t>
+  </si>
+  <si>
+    <t>TEST GRID</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +543,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>99</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296436DB-F9E3-40C2-8DE3-94F2EAE5CD07}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +58,6 @@
     <t>E. SCHILLINGER</t>
   </si>
   <si>
-    <t>PAUL PEEPLES (PM2938)</t>
-  </si>
-  <si>
     <t>SE/4 SW/4 S32 SOUTH GWIN RD.</t>
   </si>
   <si>
@@ -79,6 +77,9 @@
   </si>
   <si>
     <t>TEST GRID</t>
+  </si>
+  <si>
+    <t>PAUL PEEPLES</t>
   </si>
 </sst>
 </file>
@@ -400,7 +401,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,18 +467,18 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -489,12 +490,12 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -506,12 +507,12 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -523,12 +524,12 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -540,12 +541,12 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>99</v>
@@ -557,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/map.xlsx
+++ b/data/map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296436DB-F9E3-40C2-8DE3-94F2EAE5CD07}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146C98E-BE11-467A-B262-0DE6CDEF12E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>MAPTYPE</t>
   </si>
@@ -52,24 +52,12 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>Parcel Map</t>
-  </si>
-  <si>
-    <t>E. SCHILLINGER</t>
-  </si>
-  <si>
-    <t>SE/4 SW/4 S32 SOUTH GWIN RD.</t>
-  </si>
-  <si>
     <t>Record Map</t>
   </si>
   <si>
     <t>Survey</t>
   </si>
   <si>
-    <t>S5 6N 1E, S32 7N 1E, SE/4 SW/4 S32 7N 1E</t>
-  </si>
-  <si>
     <t>NO MAP ON FILE</t>
   </si>
   <si>
@@ -77,9 +65,6 @@
   </si>
   <si>
     <t>TEST GRID</t>
-  </si>
-  <si>
-    <t>PAUL PEEPLES</t>
   </si>
 </sst>
 </file>
@@ -398,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,116 +437,87 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>33977</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>99</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
         <v>14</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>99</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
